--- a/PTBR/Lang/PTBR/Game/Tactics.xlsx
+++ b/PTBR/Lang/PTBR/Game/Tactics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67994F5C-803C-424F-B36C-4D6231454BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED9F4F-19C8-46F8-B5FF-A662344DE185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2445" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactics" sheetId="1" r:id="rId1"/>

--- a/PTBR/Lang/PTBR/Game/Tactics.xlsx
+++ b/PTBR/Lang/PTBR/Game/Tactics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA024E8-DA5F-4AD2-949E-A8FBE5D2AC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E738E8-F62F-4DC6-B29C-8A1C22B3FF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2160" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactics" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -629,15 +629,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C17"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -680,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -697,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -714,7 +714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -731,7 +731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -748,7 +748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -765,7 +765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -782,7 +782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -799,7 +799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -816,7 +816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -833,7 +833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -850,7 +850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -867,7 +867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -884,7 +884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -901,7 +901,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
